--- a/src/data/profiles/xlsx/bluff/profile 36-3 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 36-3 graph.xlsx
@@ -21688,11 +21688,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18332995"/>
-        <c:axId val="1972545"/>
+        <c:axId val="40645524"/>
+        <c:axId val="52782368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18332995"/>
+        <c:axId val="40645524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21727,12 +21727,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972545"/>
+        <c:crossAx val="52782368"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1972545"/>
+        <c:axId val="52782368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21776,7 +21776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18332995"/>
+        <c:crossAx val="40645524"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
